--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H2">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N2">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q2">
-        <v>0.3409839637937778</v>
+        <v>0.091124907496</v>
       </c>
       <c r="R2">
-        <v>3.068855674144</v>
+        <v>0.820124167464</v>
       </c>
       <c r="S2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="T2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H3">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>10.74076</v>
       </c>
       <c r="O3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q3">
-        <v>0.2306303723911111</v>
+        <v>0.07402531791999999</v>
       </c>
       <c r="R3">
-        <v>2.075673351519999</v>
+        <v>0.6662278612799999</v>
       </c>
       <c r="S3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="T3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H4">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N4">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O4">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P4">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q4">
-        <v>0.3760010544142222</v>
+        <v>0.074027089164</v>
       </c>
       <c r="R4">
-        <v>3.384009489728</v>
+        <v>0.666243802476</v>
       </c>
       <c r="S4">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="T4">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H5">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N5">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q5">
-        <v>0.2650898451017777</v>
+        <v>0.070075361096</v>
       </c>
       <c r="R5">
-        <v>2.385808605916</v>
+        <v>0.630678249864</v>
       </c>
       <c r="S5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="T5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
     </row>
   </sheetData>
